--- a/Checklists/Checklist for mobile.xlsx
+++ b/Checklists/Checklist for mobile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Git\Projects\Test-documentation\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FC57F-04F9-480F-AA5A-C28CB04572ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93EE53D-E5B7-4EED-8048-FCE017EDD8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Install with insufient memory</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>Cyrilic symbols to the "Name list" field</t>
-  </si>
-  <si>
     <t>6.6</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>"Cancell" button</t>
-  </si>
-  <si>
     <t>6.10</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>Cyrilic symbols to the "New taskt" field</t>
-  </si>
-  <si>
     <t>7.5</t>
   </si>
   <si>
@@ -451,21 +439,12 @@
     <t>10.9</t>
   </si>
   <si>
-    <t>Call Interaption</t>
-  </si>
-  <si>
     <t>10.10</t>
   </si>
   <si>
-    <t>SMS interaption</t>
-  </si>
-  <si>
     <t>10.11</t>
   </si>
   <si>
-    <t>Behaviour after call</t>
-  </si>
-  <si>
     <t>10.12</t>
   </si>
   <si>
@@ -496,7 +475,28 @@
     <t>Default phone buttons</t>
   </si>
   <si>
-    <t>button is not localized to Eng</t>
+    <t>Cyrillic symbols to the "Name list" field</t>
+  </si>
+  <si>
+    <t>button is not localized to Eng.</t>
+  </si>
+  <si>
+    <t>"Cancel" button</t>
+  </si>
+  <si>
+    <t>Cyrillic symbols to the "New task" field</t>
+  </si>
+  <si>
+    <t>Call Interruption</t>
+  </si>
+  <si>
+    <t>SMS interruption</t>
+  </si>
+  <si>
+    <t>Behavior after call</t>
+  </si>
+  <si>
+    <t>Install with insufficient memory</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,8 @@
   </sheetPr>
   <dimension ref="A1:D983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>11</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>11</v>
@@ -1054,20 +1054,20 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>11</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>11</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>11</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>11</v>
@@ -1148,22 +1148,22 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>11</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>11</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>11</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>11</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>11</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>11</v>
@@ -1256,20 +1256,20 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>11</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>11</v>
@@ -1290,20 +1290,20 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>11</v>
@@ -1312,32 +1312,32 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>11</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>11</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>11</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>11</v>
@@ -1418,38 +1418,38 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>11</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>11</v>
@@ -1470,20 +1470,20 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>11</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>11</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>11</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>11</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>11</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>11</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>11</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>11</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>11</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>11</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>11</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>11</v>
@@ -1624,20 +1624,20 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>11</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>11</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>11</v>
@@ -1670,20 +1670,20 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>11</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>11</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>11</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>11</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>11</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>11</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>11</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>11</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>11</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>11</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>11</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>11</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>11</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>11</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>11</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>11</v>

--- a/Checklists/Checklist for mobile.xlsx
+++ b/Checklists/Checklist for mobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Git\Projects\Test-documentation\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93EE53D-E5B7-4EED-8048-FCE017EDD8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C43327-3E1A-4C12-A070-B746B2713F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,18 +517,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,8 +533,15 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +568,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor rgb="FFDEEAF6"/>
       </patternFill>
@@ -578,12 +576,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
         <bgColor rgb="FFB4A7D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF980000"/>
-        <bgColor rgb="FF980000"/>
       </patternFill>
     </fill>
     <fill>
@@ -660,16 +652,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,22 +671,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -705,28 +688,343 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -943,7 +1241,7 @@
   <dimension ref="A1:D983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,3639 +1251,3784 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="19">
         <v>44562</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="C8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="C11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="C12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="C17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="C19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="C20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="C21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6"/>
+      <c r="C22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="6"/>
+      <c r="C23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6"/>
+      <c r="C24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="6"/>
+      <c r="C25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6"/>
+      <c r="C26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6"/>
+      <c r="C29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="C31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="C34" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="6"/>
+      <c r="C35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C36" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="C37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="C39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="6"/>
+      <c r="C40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="6"/>
+      <c r="C43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="6"/>
+      <c r="C44" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="6"/>
+      <c r="C46" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="6"/>
+      <c r="C47" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="6"/>
+      <c r="C48" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="6"/>
+      <c r="C49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="6"/>
+      <c r="C50" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="6"/>
+      <c r="C51" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="6"/>
+      <c r="C52" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="6"/>
+      <c r="C53" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="6"/>
+      <c r="C54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="6"/>
+      <c r="C55" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="6"/>
+      <c r="C56" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="6"/>
+      <c r="C57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="6"/>
+      <c r="C59" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="6"/>
+      <c r="C60" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="6"/>
+      <c r="C61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="6"/>
+      <c r="C63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="6"/>
+      <c r="C64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="6"/>
+      <c r="C65" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="6"/>
+      <c r="C66" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="6"/>
+      <c r="C67" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="6"/>
+      <c r="C68" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="6"/>
+      <c r="C69" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="6"/>
+      <c r="C70" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="6"/>
+      <c r="C71" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="6"/>
+      <c r="C72" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="6"/>
+      <c r="C73" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="6"/>
+      <c r="C74" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="6"/>
+      <c r="C75" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="6"/>
+      <c r="C76" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="6"/>
+      <c r="C77" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="6"/>
+      <c r="C78" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="17"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="17"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="17"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="17"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="17"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="17"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="17"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="17"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="17"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="17"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
+      <c r="A89" s="17"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="17"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
+      <c r="A91" s="17"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+      <c r="A92" s="17"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
+      <c r="A93" s="17"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+      <c r="A94" s="17"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+      <c r="A95" s="17"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+      <c r="A96" s="17"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+      <c r="A97" s="17"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
+      <c r="A98" s="17"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+      <c r="A99" s="17"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
+      <c r="A100" s="17"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
+      <c r="A101" s="17"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="17"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+      <c r="A103" s="17"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
+      <c r="A104" s="17"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
+      <c r="A105" s="17"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="17"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
+      <c r="A107" s="17"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+      <c r="A108" s="17"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+      <c r="A109" s="17"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+      <c r="A110" s="17"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
+      <c r="A111" s="17"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+      <c r="A112" s="17"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+      <c r="A113" s="17"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="A114" s="17"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+      <c r="A115" s="17"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+      <c r="A116" s="17"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
+      <c r="A117" s="17"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+      <c r="A118" s="17"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
+      <c r="A119" s="17"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
+      <c r="A120" s="17"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
+      <c r="A121" s="17"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
+      <c r="A122" s="17"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
+      <c r="A123" s="17"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
+      <c r="A124" s="17"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+      <c r="A125" s="17"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+      <c r="A126" s="17"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
+      <c r="A127" s="17"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
+      <c r="A128" s="17"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
+      <c r="A129" s="17"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+      <c r="A130" s="17"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+      <c r="A131" s="17"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+      <c r="A132" s="17"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+      <c r="A133" s="17"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+      <c r="A134" s="17"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+      <c r="A135" s="17"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
+      <c r="A136" s="17"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
+      <c r="A137" s="17"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
+      <c r="A138" s="17"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
+      <c r="A139" s="17"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+      <c r="A140" s="17"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
+      <c r="A141" s="17"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+      <c r="A142" s="17"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+      <c r="A143" s="17"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+      <c r="A144" s="17"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+      <c r="A145" s="17"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
+      <c r="A146" s="17"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
+      <c r="A147" s="17"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
+      <c r="A148" s="17"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
+      <c r="A149" s="17"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+      <c r="A150" s="17"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+      <c r="A151" s="17"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
+      <c r="A152" s="17"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
+      <c r="A153" s="17"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+      <c r="A154" s="17"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
+      <c r="A155" s="17"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
+      <c r="A156" s="17"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
+      <c r="A157" s="17"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
+      <c r="A158" s="17"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
+      <c r="A159" s="17"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+      <c r="A160" s="17"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+      <c r="A161" s="17"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
+      <c r="A162" s="17"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+      <c r="A163" s="17"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+      <c r="A164" s="17"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+      <c r="A165" s="17"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+      <c r="A166" s="17"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="17"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="17"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+      <c r="A169" s="17"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+      <c r="A170" s="17"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+      <c r="A171" s="17"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
+      <c r="A172" s="17"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
+      <c r="A173" s="17"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
+      <c r="A174" s="17"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
+      <c r="A175" s="17"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+      <c r="A176" s="17"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
+      <c r="A177" s="17"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
+      <c r="A178" s="17"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
+      <c r="A179" s="17"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
+      <c r="A180" s="17"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
+      <c r="A181" s="17"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
+      <c r="A182" s="17"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
+      <c r="A183" s="17"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
+      <c r="A184" s="17"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
+      <c r="A185" s="17"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
+      <c r="A186" s="17"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
+      <c r="A187" s="17"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
+      <c r="A188" s="17"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
+      <c r="A189" s="17"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
+      <c r="A190" s="17"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
+      <c r="A191" s="17"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
+      <c r="A192" s="17"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
+      <c r="A193" s="17"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
+      <c r="A194" s="17"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
+      <c r="A195" s="17"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
+      <c r="A196" s="17"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
+      <c r="A197" s="17"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
+      <c r="A198" s="17"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
+      <c r="A199" s="17"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
+      <c r="A200" s="17"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
+      <c r="A201" s="17"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
+      <c r="A202" s="17"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
+      <c r="A203" s="17"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
+      <c r="A204" s="17"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
+      <c r="A205" s="17"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
+      <c r="A206" s="17"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
+      <c r="A207" s="17"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+      <c r="A208" s="17"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+      <c r="A209" s="17"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
+      <c r="A210" s="17"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
+      <c r="A211" s="17"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
+      <c r="A212" s="17"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
+      <c r="A213" s="17"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
+      <c r="A214" s="17"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
+      <c r="A215" s="17"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
+      <c r="A216" s="17"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
+      <c r="A217" s="17"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
+      <c r="A218" s="17"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
+      <c r="A219" s="17"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
+      <c r="A220" s="17"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
+      <c r="A221" s="17"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
+      <c r="A222" s="17"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
+      <c r="A223" s="17"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
+      <c r="A224" s="17"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
+      <c r="A225" s="17"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
+      <c r="A226" s="17"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
+      <c r="A227" s="17"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
+      <c r="A228" s="17"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
+      <c r="A229" s="17"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
+      <c r="A230" s="17"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
+      <c r="A231" s="17"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
+      <c r="A232" s="17"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+      <c r="A233" s="17"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
+      <c r="A234" s="17"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
+      <c r="A235" s="17"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
+      <c r="A236" s="17"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
+      <c r="A237" s="17"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
+      <c r="A238" s="17"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
+      <c r="A239" s="17"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
+      <c r="A240" s="17"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
+      <c r="A241" s="17"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
+      <c r="A242" s="17"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
+      <c r="A243" s="17"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
+      <c r="A244" s="17"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
+      <c r="A245" s="17"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
+      <c r="A246" s="17"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
+      <c r="A247" s="17"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
+      <c r="A248" s="17"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
+      <c r="A249" s="17"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
+      <c r="A250" s="17"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
+      <c r="A251" s="17"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
+      <c r="A252" s="17"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
+      <c r="A253" s="17"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
+      <c r="A254" s="17"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
+      <c r="A255" s="17"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
+      <c r="A256" s="17"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
+      <c r="A257" s="17"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
+      <c r="A258" s="17"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
+      <c r="A259" s="17"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
+      <c r="A260" s="17"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
+      <c r="A261" s="17"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
+      <c r="A262" s="17"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
+      <c r="A263" s="17"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
+      <c r="A264" s="17"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
+      <c r="A265" s="17"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="20"/>
+      <c r="A266" s="17"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
+      <c r="A267" s="17"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
+      <c r="A268" s="17"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
+      <c r="A269" s="17"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
+      <c r="A270" s="17"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
+      <c r="A271" s="17"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
+      <c r="A272" s="17"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
+      <c r="A273" s="17"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
+      <c r="A274" s="17"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
+      <c r="A275" s="17"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="20"/>
+      <c r="A276" s="17"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
+      <c r="A277" s="17"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
+      <c r="A278" s="17"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
+      <c r="A279" s="17"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
+      <c r="A280" s="17"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
+      <c r="A281" s="17"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
+      <c r="A282" s="17"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
+      <c r="A283" s="17"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="20"/>
+      <c r="A284" s="17"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="20"/>
+      <c r="A285" s="17"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="20"/>
+      <c r="A286" s="17"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="20"/>
+      <c r="A287" s="17"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="20"/>
+      <c r="A288" s="17"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="20"/>
+      <c r="A289" s="17"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="20"/>
+      <c r="A290" s="17"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="20"/>
+      <c r="A291" s="17"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="20"/>
+      <c r="A292" s="17"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
+      <c r="A293" s="17"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
+      <c r="A294" s="17"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
+      <c r="A295" s="17"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
+      <c r="A296" s="17"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
+      <c r="A297" s="17"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="20"/>
+      <c r="A298" s="17"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="20"/>
+      <c r="A299" s="17"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="20"/>
+      <c r="A300" s="17"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="20"/>
+      <c r="A301" s="17"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
+      <c r="A302" s="17"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="20"/>
+      <c r="A303" s="17"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
+      <c r="A304" s="17"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
+      <c r="A305" s="17"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="20"/>
+      <c r="A306" s="17"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="20"/>
+      <c r="A307" s="17"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="20"/>
+      <c r="A308" s="17"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="20"/>
+      <c r="A309" s="17"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
+      <c r="A310" s="17"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
+      <c r="A311" s="17"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
+      <c r="A312" s="17"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="20"/>
+      <c r="A313" s="17"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
+      <c r="A314" s="17"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
+      <c r="A315" s="17"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="20"/>
+      <c r="A316" s="17"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="20"/>
+      <c r="A317" s="17"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="20"/>
+      <c r="A318" s="17"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="20"/>
+      <c r="A319" s="17"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="20"/>
+      <c r="A320" s="17"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="20"/>
+      <c r="A321" s="17"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="20"/>
+      <c r="A322" s="17"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="20"/>
+      <c r="A323" s="17"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="20"/>
+      <c r="A324" s="17"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="20"/>
+      <c r="A325" s="17"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="20"/>
+      <c r="A326" s="17"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="20"/>
+      <c r="A327" s="17"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="20"/>
+      <c r="A328" s="17"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="20"/>
+      <c r="A329" s="17"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="20"/>
+      <c r="A330" s="17"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="20"/>
+      <c r="A331" s="17"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="20"/>
+      <c r="A332" s="17"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="20"/>
+      <c r="A333" s="17"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="20"/>
+      <c r="A334" s="17"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="20"/>
+      <c r="A335" s="17"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="20"/>
+      <c r="A336" s="17"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="20"/>
+      <c r="A337" s="17"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="20"/>
+      <c r="A338" s="17"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="20"/>
+      <c r="A339" s="17"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="20"/>
+      <c r="A340" s="17"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="20"/>
+      <c r="A341" s="17"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="20"/>
+      <c r="A342" s="17"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="20"/>
+      <c r="A343" s="17"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="20"/>
+      <c r="A344" s="17"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="20"/>
+      <c r="A345" s="17"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="20"/>
+      <c r="A346" s="17"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="20"/>
+      <c r="A347" s="17"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="20"/>
+      <c r="A348" s="17"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="20"/>
+      <c r="A349" s="17"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="20"/>
+      <c r="A350" s="17"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="20"/>
+      <c r="A351" s="17"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="20"/>
+      <c r="A352" s="17"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="20"/>
+      <c r="A353" s="17"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="20"/>
+      <c r="A354" s="17"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="20"/>
+      <c r="A355" s="17"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="20"/>
+      <c r="A356" s="17"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="20"/>
+      <c r="A357" s="17"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="20"/>
+      <c r="A358" s="17"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="20"/>
+      <c r="A359" s="17"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="20"/>
+      <c r="A360" s="17"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="20"/>
+      <c r="A361" s="17"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="20"/>
+      <c r="A362" s="17"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="20"/>
+      <c r="A363" s="17"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="20"/>
+      <c r="A364" s="17"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="20"/>
+      <c r="A365" s="17"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="20"/>
+      <c r="A366" s="17"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="20"/>
+      <c r="A367" s="17"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="20"/>
+      <c r="A368" s="17"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="20"/>
+      <c r="A369" s="17"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="20"/>
+      <c r="A370" s="17"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="20"/>
+      <c r="A371" s="17"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="20"/>
+      <c r="A372" s="17"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="20"/>
+      <c r="A373" s="17"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="20"/>
+      <c r="A374" s="17"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="20"/>
+      <c r="A375" s="17"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="20"/>
+      <c r="A376" s="17"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="20"/>
+      <c r="A377" s="17"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="20"/>
+      <c r="A378" s="17"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="20"/>
+      <c r="A379" s="17"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="20"/>
+      <c r="A380" s="17"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="20"/>
+      <c r="A381" s="17"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="20"/>
+      <c r="A382" s="17"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="20"/>
+      <c r="A383" s="17"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="20"/>
+      <c r="A384" s="17"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="20"/>
+      <c r="A385" s="17"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="20"/>
+      <c r="A386" s="17"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="20"/>
+      <c r="A387" s="17"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="20"/>
+      <c r="A388" s="17"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="20"/>
+      <c r="A389" s="17"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="20"/>
+      <c r="A390" s="17"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="20"/>
+      <c r="A391" s="17"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="20"/>
+      <c r="A392" s="17"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="20"/>
+      <c r="A393" s="17"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="20"/>
+      <c r="A394" s="17"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="20"/>
+      <c r="A395" s="17"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="20"/>
+      <c r="A396" s="17"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="20"/>
+      <c r="A397" s="17"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="20"/>
+      <c r="A398" s="17"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="20"/>
+      <c r="A399" s="17"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="20"/>
+      <c r="A400" s="17"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="20"/>
+      <c r="A401" s="17"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="20"/>
+      <c r="A402" s="17"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="20"/>
+      <c r="A403" s="17"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="20"/>
+      <c r="A404" s="17"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="20"/>
+      <c r="A405" s="17"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="20"/>
+      <c r="A406" s="17"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="20"/>
+      <c r="A407" s="17"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="20"/>
+      <c r="A408" s="17"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="20"/>
+      <c r="A409" s="17"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="20"/>
+      <c r="A410" s="17"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="20"/>
+      <c r="A411" s="17"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="20"/>
+      <c r="A412" s="17"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="20"/>
+      <c r="A413" s="17"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="20"/>
+      <c r="A414" s="17"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="20"/>
+      <c r="A415" s="17"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="20"/>
+      <c r="A416" s="17"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="20"/>
+      <c r="A417" s="17"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="20"/>
+      <c r="A418" s="17"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="20"/>
+      <c r="A419" s="17"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="20"/>
+      <c r="A420" s="17"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="20"/>
+      <c r="A421" s="17"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="20"/>
+      <c r="A422" s="17"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="20"/>
+      <c r="A423" s="17"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="20"/>
+      <c r="A424" s="17"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="20"/>
+      <c r="A425" s="17"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="20"/>
+      <c r="A426" s="17"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="20"/>
+      <c r="A427" s="17"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="20"/>
+      <c r="A428" s="17"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="20"/>
+      <c r="A429" s="17"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="20"/>
+      <c r="A430" s="17"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="20"/>
+      <c r="A431" s="17"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="20"/>
+      <c r="A432" s="17"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="20"/>
+      <c r="A433" s="17"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="20"/>
+      <c r="A434" s="17"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="20"/>
+      <c r="A435" s="17"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="20"/>
+      <c r="A436" s="17"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="20"/>
+      <c r="A437" s="17"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="20"/>
+      <c r="A438" s="17"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="20"/>
+      <c r="A439" s="17"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="20"/>
+      <c r="A440" s="17"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="20"/>
+      <c r="A441" s="17"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="20"/>
+      <c r="A442" s="17"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="20"/>
+      <c r="A443" s="17"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="20"/>
+      <c r="A444" s="17"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="20"/>
+      <c r="A445" s="17"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="20"/>
+      <c r="A446" s="17"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="20"/>
+      <c r="A447" s="17"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="20"/>
+      <c r="A448" s="17"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="20"/>
+      <c r="A449" s="17"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="20"/>
+      <c r="A450" s="17"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="20"/>
+      <c r="A451" s="17"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="20"/>
+      <c r="A452" s="17"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="20"/>
+      <c r="A453" s="17"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="20"/>
+      <c r="A454" s="17"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="20"/>
+      <c r="A455" s="17"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="20"/>
+      <c r="A456" s="17"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="20"/>
+      <c r="A457" s="17"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="20"/>
+      <c r="A458" s="17"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="20"/>
+      <c r="A459" s="17"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="20"/>
+      <c r="A460" s="17"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="20"/>
+      <c r="A461" s="17"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="20"/>
+      <c r="A462" s="17"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="20"/>
+      <c r="A463" s="17"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="20"/>
+      <c r="A464" s="17"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="20"/>
+      <c r="A465" s="17"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="20"/>
+      <c r="A466" s="17"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="20"/>
+      <c r="A467" s="17"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="20"/>
+      <c r="A468" s="17"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="20"/>
+      <c r="A469" s="17"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="20"/>
+      <c r="A470" s="17"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="20"/>
+      <c r="A471" s="17"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="20"/>
+      <c r="A472" s="17"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="20"/>
+      <c r="A473" s="17"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="20"/>
+      <c r="A474" s="17"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="20"/>
+      <c r="A475" s="17"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="20"/>
+      <c r="A476" s="17"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="20"/>
+      <c r="A477" s="17"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="20"/>
+      <c r="A478" s="17"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="20"/>
+      <c r="A479" s="17"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="20"/>
+      <c r="A480" s="17"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="20"/>
+      <c r="A481" s="17"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="20"/>
+      <c r="A482" s="17"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="20"/>
+      <c r="A483" s="17"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="20"/>
+      <c r="A484" s="17"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="20"/>
+      <c r="A485" s="17"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="20"/>
+      <c r="A486" s="17"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="20"/>
+      <c r="A487" s="17"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="20"/>
+      <c r="A488" s="17"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="20"/>
+      <c r="A489" s="17"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="20"/>
+      <c r="A490" s="17"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="20"/>
+      <c r="A491" s="17"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="20"/>
+      <c r="A492" s="17"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="20"/>
+      <c r="A493" s="17"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="20"/>
+      <c r="A494" s="17"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="20"/>
+      <c r="A495" s="17"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="20"/>
+      <c r="A496" s="17"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="20"/>
+      <c r="A497" s="17"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="20"/>
+      <c r="A498" s="17"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="20"/>
+      <c r="A499" s="17"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="20"/>
+      <c r="A500" s="17"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="20"/>
+      <c r="A501" s="17"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="20"/>
+      <c r="A502" s="17"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="20"/>
+      <c r="A503" s="17"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="20"/>
+      <c r="A504" s="17"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="20"/>
+      <c r="A505" s="17"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="20"/>
+      <c r="A506" s="17"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="20"/>
+      <c r="A507" s="17"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="20"/>
+      <c r="A508" s="17"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="20"/>
+      <c r="A509" s="17"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="20"/>
+      <c r="A510" s="17"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="20"/>
+      <c r="A511" s="17"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="20"/>
+      <c r="A512" s="17"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="20"/>
+      <c r="A513" s="17"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="20"/>
+      <c r="A514" s="17"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="20"/>
+      <c r="A515" s="17"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="20"/>
+      <c r="A516" s="17"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="20"/>
+      <c r="A517" s="17"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="20"/>
+      <c r="A518" s="17"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="20"/>
+      <c r="A519" s="17"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="20"/>
+      <c r="A520" s="17"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="20"/>
+      <c r="A521" s="17"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="20"/>
+      <c r="A522" s="17"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="20"/>
+      <c r="A523" s="17"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="20"/>
+      <c r="A524" s="17"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="20"/>
+      <c r="A525" s="17"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="20"/>
+      <c r="A526" s="17"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="20"/>
+      <c r="A527" s="17"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="20"/>
+      <c r="A528" s="17"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="20"/>
+      <c r="A529" s="17"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="20"/>
+      <c r="A530" s="17"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="20"/>
+      <c r="A531" s="17"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="20"/>
+      <c r="A532" s="17"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="20"/>
+      <c r="A533" s="17"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="20"/>
+      <c r="A534" s="17"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="20"/>
+      <c r="A535" s="17"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="20"/>
+      <c r="A536" s="17"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="20"/>
+      <c r="A537" s="17"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="20"/>
+      <c r="A538" s="17"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="20"/>
+      <c r="A539" s="17"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="20"/>
+      <c r="A540" s="17"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="20"/>
+      <c r="A541" s="17"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="20"/>
+      <c r="A542" s="17"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="20"/>
+      <c r="A543" s="17"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="20"/>
+      <c r="A544" s="17"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="20"/>
+      <c r="A545" s="17"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="20"/>
+      <c r="A546" s="17"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="20"/>
+      <c r="A547" s="17"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="20"/>
+      <c r="A548" s="17"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="20"/>
+      <c r="A549" s="17"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="20"/>
+      <c r="A550" s="17"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="20"/>
+      <c r="A551" s="17"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="20"/>
+      <c r="A552" s="17"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="20"/>
+      <c r="A553" s="17"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="20"/>
+      <c r="A554" s="17"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="20"/>
+      <c r="A555" s="17"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="20"/>
+      <c r="A556" s="17"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="20"/>
+      <c r="A557" s="17"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="20"/>
+      <c r="A558" s="17"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="20"/>
+      <c r="A559" s="17"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="20"/>
+      <c r="A560" s="17"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="20"/>
+      <c r="A561" s="17"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="20"/>
+      <c r="A562" s="17"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="20"/>
+      <c r="A563" s="17"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="20"/>
+      <c r="A564" s="17"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="20"/>
+      <c r="A565" s="17"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="20"/>
+      <c r="A566" s="17"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="20"/>
+      <c r="A567" s="17"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="20"/>
+      <c r="A568" s="17"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="20"/>
+      <c r="A569" s="17"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="20"/>
+      <c r="A570" s="17"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="20"/>
+      <c r="A571" s="17"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="20"/>
+      <c r="A572" s="17"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="20"/>
+      <c r="A573" s="17"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="20"/>
+      <c r="A574" s="17"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="20"/>
+      <c r="A575" s="17"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="20"/>
+      <c r="A576" s="17"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="20"/>
+      <c r="A577" s="17"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="20"/>
+      <c r="A578" s="17"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="20"/>
+      <c r="A579" s="17"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="20"/>
+      <c r="A580" s="17"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="20"/>
+      <c r="A581" s="17"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="20"/>
+      <c r="A582" s="17"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="20"/>
+      <c r="A583" s="17"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="20"/>
+      <c r="A584" s="17"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="20"/>
+      <c r="A585" s="17"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="20"/>
+      <c r="A586" s="17"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="20"/>
+      <c r="A587" s="17"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="20"/>
+      <c r="A588" s="17"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="20"/>
+      <c r="A589" s="17"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="20"/>
+      <c r="A590" s="17"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="20"/>
+      <c r="A591" s="17"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="20"/>
+      <c r="A592" s="17"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="20"/>
+      <c r="A593" s="17"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="20"/>
+      <c r="A594" s="17"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="20"/>
+      <c r="A595" s="17"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="20"/>
+      <c r="A596" s="17"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="20"/>
+      <c r="A597" s="17"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="20"/>
+      <c r="A598" s="17"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="20"/>
+      <c r="A599" s="17"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="20"/>
+      <c r="A600" s="17"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="20"/>
+      <c r="A601" s="17"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="20"/>
+      <c r="A602" s="17"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="20"/>
+      <c r="A603" s="17"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="20"/>
+      <c r="A604" s="17"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="20"/>
+      <c r="A605" s="17"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="20"/>
+      <c r="A606" s="17"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="20"/>
+      <c r="A607" s="17"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="20"/>
+      <c r="A608" s="17"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="20"/>
+      <c r="A609" s="17"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="20"/>
+      <c r="A610" s="17"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="20"/>
+      <c r="A611" s="17"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="20"/>
+      <c r="A612" s="17"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="20"/>
+      <c r="A613" s="17"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="20"/>
+      <c r="A614" s="17"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="20"/>
+      <c r="A615" s="17"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="20"/>
+      <c r="A616" s="17"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="20"/>
+      <c r="A617" s="17"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="20"/>
+      <c r="A618" s="17"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="20"/>
+      <c r="A619" s="17"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="20"/>
+      <c r="A620" s="17"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="20"/>
+      <c r="A621" s="17"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="20"/>
+      <c r="A622" s="17"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="20"/>
+      <c r="A623" s="17"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="20"/>
+      <c r="A624" s="17"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="20"/>
+      <c r="A625" s="17"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="20"/>
+      <c r="A626" s="17"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="20"/>
+      <c r="A627" s="17"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="20"/>
+      <c r="A628" s="17"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="20"/>
+      <c r="A629" s="17"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="20"/>
+      <c r="A630" s="17"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="20"/>
+      <c r="A631" s="17"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="20"/>
+      <c r="A632" s="17"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="20"/>
+      <c r="A633" s="17"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="20"/>
+      <c r="A634" s="17"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="20"/>
+      <c r="A635" s="17"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="20"/>
+      <c r="A636" s="17"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="20"/>
+      <c r="A637" s="17"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="20"/>
+      <c r="A638" s="17"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="20"/>
+      <c r="A639" s="17"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="20"/>
+      <c r="A640" s="17"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="20"/>
+      <c r="A641" s="17"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="20"/>
+      <c r="A642" s="17"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="20"/>
+      <c r="A643" s="17"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="20"/>
+      <c r="A644" s="17"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="20"/>
+      <c r="A645" s="17"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="20"/>
+      <c r="A646" s="17"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="20"/>
+      <c r="A647" s="17"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="20"/>
+      <c r="A648" s="17"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="20"/>
+      <c r="A649" s="17"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="20"/>
+      <c r="A650" s="17"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="20"/>
+      <c r="A651" s="17"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="20"/>
+      <c r="A652" s="17"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="20"/>
+      <c r="A653" s="17"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="20"/>
+      <c r="A654" s="17"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="20"/>
+      <c r="A655" s="17"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="20"/>
+      <c r="A656" s="17"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="20"/>
+      <c r="A657" s="17"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="20"/>
+      <c r="A658" s="17"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="20"/>
+      <c r="A659" s="17"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="20"/>
+      <c r="A660" s="17"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="20"/>
+      <c r="A661" s="17"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="20"/>
+      <c r="A662" s="17"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="20"/>
+      <c r="A663" s="17"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="20"/>
+      <c r="A664" s="17"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="20"/>
+      <c r="A665" s="17"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="20"/>
+      <c r="A666" s="17"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="20"/>
+      <c r="A667" s="17"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="20"/>
+      <c r="A668" s="17"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="20"/>
+      <c r="A669" s="17"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="20"/>
+      <c r="A670" s="17"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="20"/>
+      <c r="A671" s="17"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="20"/>
+      <c r="A672" s="17"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="20"/>
+      <c r="A673" s="17"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="20"/>
+      <c r="A674" s="17"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="20"/>
+      <c r="A675" s="17"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="20"/>
+      <c r="A676" s="17"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="20"/>
+      <c r="A677" s="17"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="20"/>
+      <c r="A678" s="17"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="20"/>
+      <c r="A679" s="17"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="20"/>
+      <c r="A680" s="17"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="20"/>
+      <c r="A681" s="17"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="20"/>
+      <c r="A682" s="17"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="20"/>
+      <c r="A683" s="17"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="20"/>
+      <c r="A684" s="17"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="20"/>
+      <c r="A685" s="17"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="20"/>
+      <c r="A686" s="17"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="20"/>
+      <c r="A687" s="17"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="20"/>
+      <c r="A688" s="17"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="20"/>
+      <c r="A689" s="17"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="20"/>
+      <c r="A690" s="17"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="20"/>
+      <c r="A691" s="17"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="20"/>
+      <c r="A692" s="17"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="20"/>
+      <c r="A693" s="17"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="20"/>
+      <c r="A694" s="17"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="20"/>
+      <c r="A695" s="17"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="20"/>
+      <c r="A696" s="17"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="20"/>
+      <c r="A697" s="17"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="20"/>
+      <c r="A698" s="17"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="20"/>
+      <c r="A699" s="17"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="20"/>
+      <c r="A700" s="17"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="20"/>
+      <c r="A701" s="17"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="20"/>
+      <c r="A702" s="17"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="20"/>
+      <c r="A703" s="17"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="20"/>
+      <c r="A704" s="17"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="20"/>
+      <c r="A705" s="17"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="20"/>
+      <c r="A706" s="17"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="20"/>
+      <c r="A707" s="17"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="20"/>
+      <c r="A708" s="17"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="20"/>
+      <c r="A709" s="17"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="20"/>
+      <c r="A710" s="17"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="20"/>
+      <c r="A711" s="17"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="20"/>
+      <c r="A712" s="17"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="20"/>
+      <c r="A713" s="17"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="20"/>
+      <c r="A714" s="17"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="20"/>
+      <c r="A715" s="17"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="20"/>
+      <c r="A716" s="17"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="20"/>
+      <c r="A717" s="17"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="20"/>
+      <c r="A718" s="17"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="20"/>
+      <c r="A719" s="17"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="20"/>
+      <c r="A720" s="17"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="20"/>
+      <c r="A721" s="17"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="20"/>
+      <c r="A722" s="17"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="20"/>
+      <c r="A723" s="17"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="20"/>
+      <c r="A724" s="17"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="20"/>
+      <c r="A725" s="17"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="20"/>
+      <c r="A726" s="17"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="20"/>
+      <c r="A727" s="17"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="20"/>
+      <c r="A728" s="17"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="20"/>
+      <c r="A729" s="17"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="20"/>
+      <c r="A730" s="17"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="20"/>
+      <c r="A731" s="17"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="20"/>
+      <c r="A732" s="17"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="20"/>
+      <c r="A733" s="17"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="20"/>
+      <c r="A734" s="17"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="20"/>
+      <c r="A735" s="17"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="20"/>
+      <c r="A736" s="17"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="20"/>
+      <c r="A737" s="17"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="20"/>
+      <c r="A738" s="17"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="20"/>
+      <c r="A739" s="17"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="20"/>
+      <c r="A740" s="17"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="20"/>
+      <c r="A741" s="17"/>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="20"/>
+      <c r="A742" s="17"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="20"/>
+      <c r="A743" s="17"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="20"/>
+      <c r="A744" s="17"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="20"/>
+      <c r="A745" s="17"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="20"/>
+      <c r="A746" s="17"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="20"/>
+      <c r="A747" s="17"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="20"/>
+      <c r="A748" s="17"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="20"/>
+      <c r="A749" s="17"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="20"/>
+      <c r="A750" s="17"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="20"/>
+      <c r="A751" s="17"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="20"/>
+      <c r="A752" s="17"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="20"/>
+      <c r="A753" s="17"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="20"/>
+      <c r="A754" s="17"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="20"/>
+      <c r="A755" s="17"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="20"/>
+      <c r="A756" s="17"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="20"/>
+      <c r="A757" s="17"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="20"/>
+      <c r="A758" s="17"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="20"/>
+      <c r="A759" s="17"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="20"/>
+      <c r="A760" s="17"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="20"/>
+      <c r="A761" s="17"/>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="20"/>
+      <c r="A762" s="17"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="20"/>
+      <c r="A763" s="17"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="20"/>
+      <c r="A764" s="17"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="20"/>
+      <c r="A765" s="17"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="20"/>
+      <c r="A766" s="17"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="20"/>
+      <c r="A767" s="17"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="20"/>
+      <c r="A768" s="17"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="20"/>
+      <c r="A769" s="17"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="20"/>
+      <c r="A770" s="17"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="20"/>
+      <c r="A771" s="17"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="20"/>
+      <c r="A772" s="17"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="20"/>
+      <c r="A773" s="17"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="20"/>
+      <c r="A774" s="17"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="20"/>
+      <c r="A775" s="17"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="20"/>
+      <c r="A776" s="17"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="20"/>
+      <c r="A777" s="17"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="20"/>
+      <c r="A778" s="17"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="20"/>
+      <c r="A779" s="17"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="20"/>
+      <c r="A780" s="17"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="20"/>
+      <c r="A781" s="17"/>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="20"/>
+      <c r="A782" s="17"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="20"/>
+      <c r="A783" s="17"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="20"/>
+      <c r="A784" s="17"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="20"/>
+      <c r="A785" s="17"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="20"/>
+      <c r="A786" s="17"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="20"/>
+      <c r="A787" s="17"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="20"/>
+      <c r="A788" s="17"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="20"/>
+      <c r="A789" s="17"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="20"/>
+      <c r="A790" s="17"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="20"/>
+      <c r="A791" s="17"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="20"/>
+      <c r="A792" s="17"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="20"/>
+      <c r="A793" s="17"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="20"/>
+      <c r="A794" s="17"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="20"/>
+      <c r="A795" s="17"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="20"/>
+      <c r="A796" s="17"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="20"/>
+      <c r="A797" s="17"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="20"/>
+      <c r="A798" s="17"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="20"/>
+      <c r="A799" s="17"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="20"/>
+      <c r="A800" s="17"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="20"/>
+      <c r="A801" s="17"/>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="20"/>
+      <c r="A802" s="17"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="20"/>
+      <c r="A803" s="17"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="20"/>
+      <c r="A804" s="17"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="20"/>
+      <c r="A805" s="17"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="20"/>
+      <c r="A806" s="17"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="20"/>
+      <c r="A807" s="17"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="20"/>
+      <c r="A808" s="17"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="20"/>
+      <c r="A809" s="17"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="20"/>
+      <c r="A810" s="17"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="20"/>
+      <c r="A811" s="17"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="20"/>
+      <c r="A812" s="17"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="20"/>
+      <c r="A813" s="17"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="20"/>
+      <c r="A814" s="17"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="20"/>
+      <c r="A815" s="17"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="20"/>
+      <c r="A816" s="17"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="20"/>
+      <c r="A817" s="17"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="20"/>
+      <c r="A818" s="17"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="20"/>
+      <c r="A819" s="17"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="20"/>
+      <c r="A820" s="17"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="20"/>
+      <c r="A821" s="17"/>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="20"/>
+      <c r="A822" s="17"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="20"/>
+      <c r="A823" s="17"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="20"/>
+      <c r="A824" s="17"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="20"/>
+      <c r="A825" s="17"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="20"/>
+      <c r="A826" s="17"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="20"/>
+      <c r="A827" s="17"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="20"/>
+      <c r="A828" s="17"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="20"/>
+      <c r="A829" s="17"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="20"/>
+      <c r="A830" s="17"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="20"/>
+      <c r="A831" s="17"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="20"/>
+      <c r="A832" s="17"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="20"/>
+      <c r="A833" s="17"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="20"/>
+      <c r="A834" s="17"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="20"/>
+      <c r="A835" s="17"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="20"/>
+      <c r="A836" s="17"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="20"/>
+      <c r="A837" s="17"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="20"/>
+      <c r="A838" s="17"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="20"/>
+      <c r="A839" s="17"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="20"/>
+      <c r="A840" s="17"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="20"/>
+      <c r="A841" s="17"/>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="20"/>
+      <c r="A842" s="17"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="20"/>
+      <c r="A843" s="17"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="20"/>
+      <c r="A844" s="17"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="20"/>
+      <c r="A845" s="17"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="20"/>
+      <c r="A846" s="17"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="20"/>
+      <c r="A847" s="17"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="20"/>
+      <c r="A848" s="17"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="20"/>
+      <c r="A849" s="17"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="20"/>
+      <c r="A850" s="17"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="20"/>
+      <c r="A851" s="17"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="20"/>
+      <c r="A852" s="17"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="20"/>
+      <c r="A853" s="17"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="20"/>
+      <c r="A854" s="17"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="20"/>
+      <c r="A855" s="17"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="20"/>
+      <c r="A856" s="17"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="20"/>
+      <c r="A857" s="17"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="20"/>
+      <c r="A858" s="17"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="20"/>
+      <c r="A859" s="17"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="20"/>
+      <c r="A860" s="17"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="20"/>
+      <c r="A861" s="17"/>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="20"/>
+      <c r="A862" s="17"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="20"/>
+      <c r="A863" s="17"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="20"/>
+      <c r="A864" s="17"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="20"/>
+      <c r="A865" s="17"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="20"/>
+      <c r="A866" s="17"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="20"/>
+      <c r="A867" s="17"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="20"/>
+      <c r="A868" s="17"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="20"/>
+      <c r="A869" s="17"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="20"/>
+      <c r="A870" s="17"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="20"/>
+      <c r="A871" s="17"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="20"/>
+      <c r="A872" s="17"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="20"/>
+      <c r="A873" s="17"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="20"/>
+      <c r="A874" s="17"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="20"/>
+      <c r="A875" s="17"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="20"/>
+      <c r="A876" s="17"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="20"/>
+      <c r="A877" s="17"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="20"/>
+      <c r="A878" s="17"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="20"/>
+      <c r="A879" s="17"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="20"/>
+      <c r="A880" s="17"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="20"/>
+      <c r="A881" s="17"/>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="20"/>
+      <c r="A882" s="17"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="20"/>
+      <c r="A883" s="17"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="20"/>
+      <c r="A884" s="17"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="20"/>
+      <c r="A885" s="17"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="20"/>
+      <c r="A886" s="17"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="20"/>
+      <c r="A887" s="17"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="20"/>
+      <c r="A888" s="17"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="20"/>
+      <c r="A889" s="17"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="20"/>
+      <c r="A890" s="17"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="20"/>
+      <c r="A891" s="17"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="20"/>
+      <c r="A892" s="17"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="20"/>
+      <c r="A893" s="17"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="20"/>
+      <c r="A894" s="17"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="20"/>
+      <c r="A895" s="17"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="20"/>
+      <c r="A896" s="17"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="20"/>
+      <c r="A897" s="17"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="20"/>
+      <c r="A898" s="17"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="20"/>
+      <c r="A899" s="17"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="20"/>
+      <c r="A900" s="17"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="20"/>
+      <c r="A901" s="17"/>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="20"/>
+      <c r="A902" s="17"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="20"/>
+      <c r="A903" s="17"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="20"/>
+      <c r="A904" s="17"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="20"/>
+      <c r="A905" s="17"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="20"/>
+      <c r="A906" s="17"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="20"/>
+      <c r="A907" s="17"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="20"/>
+      <c r="A908" s="17"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="20"/>
+      <c r="A909" s="17"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="20"/>
+      <c r="A910" s="17"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="20"/>
+      <c r="A911" s="17"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="20"/>
+      <c r="A912" s="17"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="20"/>
+      <c r="A913" s="17"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="20"/>
+      <c r="A914" s="17"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="20"/>
+      <c r="A915" s="17"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="20"/>
+      <c r="A916" s="17"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="20"/>
+      <c r="A917" s="17"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="20"/>
+      <c r="A918" s="17"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="20"/>
+      <c r="A919" s="17"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="20"/>
+      <c r="A920" s="17"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="20"/>
+      <c r="A921" s="17"/>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="20"/>
+      <c r="A922" s="17"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="20"/>
+      <c r="A923" s="17"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="20"/>
+      <c r="A924" s="17"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="20"/>
+      <c r="A925" s="17"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="20"/>
+      <c r="A926" s="17"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="20"/>
+      <c r="A927" s="17"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="20"/>
+      <c r="A928" s="17"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="20"/>
+      <c r="A929" s="17"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="20"/>
+      <c r="A930" s="17"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="20"/>
+      <c r="A931" s="17"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="20"/>
+      <c r="A932" s="17"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="20"/>
+      <c r="A933" s="17"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="20"/>
+      <c r="A934" s="17"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="20"/>
+      <c r="A935" s="17"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="20"/>
+      <c r="A936" s="17"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="20"/>
+      <c r="A937" s="17"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="20"/>
+      <c r="A938" s="17"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="20"/>
+      <c r="A939" s="17"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="20"/>
+      <c r="A940" s="17"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="20"/>
+      <c r="A941" s="17"/>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="20"/>
+      <c r="A942" s="17"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="20"/>
+      <c r="A943" s="17"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="20"/>
+      <c r="A944" s="17"/>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="20"/>
+      <c r="A945" s="17"/>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="20"/>
+      <c r="A946" s="17"/>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="20"/>
+      <c r="A947" s="17"/>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="20"/>
+      <c r="A948" s="17"/>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="20"/>
+      <c r="A949" s="17"/>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="20"/>
+      <c r="A950" s="17"/>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="20"/>
+      <c r="A951" s="17"/>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="20"/>
+      <c r="A952" s="17"/>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="20"/>
+      <c r="A953" s="17"/>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="20"/>
+      <c r="A954" s="17"/>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="20"/>
+      <c r="A955" s="17"/>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="20"/>
+      <c r="A956" s="17"/>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957" s="20"/>
+      <c r="A957" s="17"/>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="20"/>
+      <c r="A958" s="17"/>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="20"/>
+      <c r="A959" s="17"/>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="20"/>
+      <c r="A960" s="17"/>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" s="20"/>
+      <c r="A961" s="17"/>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" s="20"/>
+      <c r="A962" s="17"/>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" s="20"/>
+      <c r="A963" s="17"/>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" s="20"/>
+      <c r="A964" s="17"/>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" s="20"/>
+      <c r="A965" s="17"/>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" s="20"/>
+      <c r="A966" s="17"/>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" s="20"/>
+      <c r="A967" s="17"/>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" s="20"/>
+      <c r="A968" s="17"/>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="20"/>
+      <c r="A969" s="17"/>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="20"/>
+      <c r="A970" s="17"/>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" s="20"/>
+      <c r="A971" s="17"/>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" s="20"/>
+      <c r="A972" s="17"/>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" s="20"/>
+      <c r="A973" s="17"/>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="20"/>
+      <c r="A974" s="17"/>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" s="20"/>
+      <c r="A975" s="17"/>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="20"/>
+      <c r="A976" s="17"/>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" s="20"/>
+      <c r="A977" s="17"/>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" s="20"/>
+      <c r="A978" s="17"/>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" s="20"/>
+      <c r="A979" s="17"/>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="20"/>
+      <c r="A980" s="17"/>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="20"/>
+      <c r="A981" s="17"/>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" s="20"/>
+      <c r="A982" s="17"/>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="20"/>
+      <c r="A983" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C18">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C26">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C44">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C57">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C61">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:C78">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C9 C11:C26 C28:C29 C31:C32 C34:C44 C46:C57 C59:C61 C63:C78" xr:uid="{6D691C56-E2A6-4AB0-A235-210A3B240252}">
+      <formula1>"Passed, Failed, Not run, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>